--- a/테이블정의서.xlsx
+++ b/테이블정의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.101.43.40686"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t xml:space="preserve"> 업무구분</t>
   </si>
@@ -406,6 +406,157 @@
   </si>
   <si>
     <t>requset의 헤더로 들어온 device-id와 requsetbody의 username을 비교하여 등록된 기기임을 확인한다.</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>사용자이름-영문</t>
+  </si>
+  <si>
+    <t>사용자이름-한글</t>
+  </si>
+  <si>
+    <t>co_kname</t>
+  </si>
+  <si>
+    <t>주소-시,도</t>
+  </si>
+  <si>
+    <t>주소-시,군,구</t>
+  </si>
+  <si>
+    <t>co_addr1</t>
+  </si>
+  <si>
+    <t>co_addr2</t>
+  </si>
+  <si>
+    <t>co_addr3</t>
+  </si>
+  <si>
+    <t>주소-도로명-건물번호</t>
+  </si>
+  <si>
+    <t>주소-도로명</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>법인여부</t>
+  </si>
+  <si>
+    <t>co_corp</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>사업자 번호</t>
+  </si>
+  <si>
+    <t>co_saupjaNum</t>
+  </si>
+  <si>
+    <t>co_saupja_num</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>호적상 이름</t>
+  </si>
+  <si>
+    <t>co_hojuk_name</t>
+  </si>
+  <si>
+    <t>tb_corp</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>8192</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>암호화된 데이터 길이 계산법</t>
+  </si>
+  <si>
+    <t>암호화된 데이터 길이 계산법 ((원본데이터길이)/16) * 16 * 4 / 3</t>
+  </si>
+  <si>
+    <t>암호화된 데이터 길이 계산</t>
+  </si>
+  <si>
+    <t>원본:</t>
+  </si>
+  <si>
+    <t>결과</t>
+  </si>
+  <si>
+    <t>원본데이터 길이:</t>
+  </si>
+  <si>
+    <t>암호화된 데이터 길이 계산법 = 올림((올림((원본데이터길이)/16) * 16 * 4) / 3) * 4</t>
+  </si>
+  <si>
+    <t>암호화된 데이터 길이 계산법 = 올림((올림((원본데이터길이)/16) * 16 * 4) / 3)</t>
+  </si>
+  <si>
+    <t>암호화된 데이터 길이 계산법 =올림((원본데이터길이)/16) * 22</t>
+  </si>
+  <si>
+    <t>원본데이터 길이입력:</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>requset의 헤더로 들어온 device-id와 requsetbody의 username을 비교하여 등록된 기기임을 확인한다.
+co_username은 co_name과는 별개이다.</t>
+  </si>
+  <si>
+    <t>co_ename</t>
+  </si>
+  <si>
+    <t>사용자이름(ID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">암호화는 aes로 진행되어 16바이트 단위로 잘리고 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">암호화는 aes로 진행되어 16바이트 단위로 잘리고맨앞에 16바이트 iv가 붙고 그것이 base64로 인코딩 된다 </t>
+  </si>
+  <si>
+    <t>암호화는 aes로 진행되어 16바이트 단위로 잘리고맨앞에 16바이트 iv가 붙고 그것이 base64로 인코딩 된다 (아무리 짧아도 44바이트 이상 필요)</t>
+  </si>
+  <si>
+    <t>암호화는 aes로 진행되어 16바이트 단위로 잘리고맨앞에 16바이트 iv가 붙고 그것이 base64로 인코딩 된다 (따라서 아무리 짧아도 44바이트 이상 필요)</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>co_rrn1, co_rrn2, co_tel,co_saupja_num 은 tb_keyList 의 co_key 로 암호화하여 base64 로 인코딩된 값이다.</t>
+  </si>
+  <si>
+    <t>조부, 조모, 부, 모, 자녀, 형제,배우자</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -418,7 +569,7 @@
     <numFmt numFmtId="166" formatCode="0.0_ "/>
     <numFmt numFmtId="167" formatCode="yyyy&quot;년 &quot;m&quot;월 &quot;d\일"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -579,8 +730,13 @@
       <name val="바탕"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="HY견고딕"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,12 +773,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -800,8 +950,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1174,6 +1336,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyProtection="0">
@@ -1243,10 +1465,10 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="24" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="23" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="25" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="23" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="25" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
@@ -1255,92 +1477,92 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="73">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1551,6 +1773,86 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="18" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="28" xfId="20">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="28" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="28" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="28" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="29" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="30" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1675,8 +1977,8 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="바탕"/>
-            <a:ea typeface="바탕"/>
+            <a:latin typeface="HY견고딕"/>
+            <a:ea typeface="HY견고딕"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2497,574 +2799,578 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" showZeros="0" tabSelected="1" defaultGridColor="0" colorId="64" view="normal" zoomScale="86" zoomScaleNormal="86" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView topLeftCell="A10" showZeros="0" tabSelected="1" defaultGridColor="0" colorId="64" view="normal" zoomScale="86" zoomScaleNormal="86" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
     <col min="1" max="1" width="15.75500011" customWidth="1" outlineLevel="0"/>
     <col min="2" max="2" width="15.13000011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="16.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="20.12999916" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" width="11.88000011" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" width="8.63000011" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" width="10.88000011" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" width="8.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" width="31.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="33.50500107" customWidth="1" outlineLevel="0"/>
     <col min="10" max="10" width="8.63000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.600000" customHeight="1">
+      <c r="A2" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.500000" customHeight="1">
+      <c r="A3" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="68">
+        <v>32</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="70">
+        <f>ROUNDUP(ROUNDUP(((ROUNDUP(D3/16,0)+1)*64)/3,0)/4,0)*4</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.500000" customHeight="1">
+      <c r="A5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31" t="s">
+      <c r="F5" s="30"/>
+      <c r="G5" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.500000" customHeight="1">
+      <c r="A6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.500000" customHeight="1">
+      <c r="A7" s="36"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.500000" customHeight="1">
+      <c r="A8" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E8" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F8" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G8" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H8" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I8" s="38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A5" s="36">
+    <row r="9" spans="1:9" ht="16.500000" customHeight="1">
+      <c r="A9" s="36">
         <v>1</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B9" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C9" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D9" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42" t="s">
+      <c r="F9" s="42"/>
+      <c r="G9" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="43"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A6" s="36">
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.250000" customHeight="1">
+      <c r="A10" s="36">
         <v>2</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B10" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C10" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D10" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42" t="s">
+      <c r="E10" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I10" s="43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.250000" customHeight="1">
-      <c r="A7" s="44" t="s">
+    <row r="11" spans="1:9" ht="17.250000">
+      <c r="A11" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B11" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+    </row>
+    <row r="13" ht="16.500000" customHeight="1"/>
+    <row r="14" spans="1:9" ht="16.500000" customHeight="1">
+      <c r="A14" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31" t="s">
+      <c r="F14" s="30"/>
+      <c r="G14" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A11" s="32" t="s">
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.500000" customHeight="1">
+      <c r="A15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34" t="s">
+      <c r="D15" s="33"/>
+      <c r="E15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35" t="s">
+      <c r="F15" s="34"/>
+      <c r="G15" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A13" s="32" t="s">
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.500000" customHeight="1">
+      <c r="A16" s="36"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.500000" customHeight="1">
+      <c r="A17" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B17" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C17" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D17" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E17" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F17" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H17" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I17" s="38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A14" s="36">
+    <row r="18" spans="1:9" ht="16.500000" customHeight="1">
+      <c r="A18" s="36">
         <v>1</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="40" t="s">
+      <c r="B18" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="43"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A15" s="36">
-        <v>2</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A16" s="36">
-        <v>3</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A17" s="36">
-        <v>4</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="27.000000" customHeight="1">
-      <c r="A18" s="36">
-        <v>5</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>62</v>
       </c>
       <c r="D18" s="40" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.500000" customHeight="1">
+      <c r="G18" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="43"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
       <c r="I19" s="43"/>
     </row>
-    <row r="20" spans="1:9" ht="16.500000" customHeight="1">
+    <row r="20" spans="1:9" ht="27.000000">
       <c r="A20" s="36">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="D20" s="40" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43" t="s">
-        <v>71</v>
-      </c>
+      <c r="H20" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="43"/>
     </row>
     <row r="21" spans="1:9" ht="16.500000" customHeight="1">
       <c r="A21" s="36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="H21" s="42" t="s">
+        <v>42</v>
+      </c>
       <c r="I21" s="43"/>
     </row>
     <row r="22" spans="1:9" ht="16.500000" customHeight="1">
       <c r="A22" s="36">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
       <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
-    </row>
-    <row r="23" spans="1:9" ht="16.500000" customHeight="1">
+      <c r="I22" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="27.000000" customHeight="1">
       <c r="A23" s="36">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="41"/>
+      <c r="E23" s="41" t="s">
+        <v>154</v>
+      </c>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-    </row>
-    <row r="24" spans="1:9" ht="17.250000" customHeight="1">
-      <c r="A24" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-    </row>
-    <row r="26" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A26" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
+      <c r="I23" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.500000" customHeight="1">
+      <c r="A24" s="36">
+        <v>7</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="36">
+        <v>8</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" spans="1:9" ht="24.300000" customHeight="1">
+      <c r="A26" s="36">
+        <v>9</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
     </row>
     <row r="27" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A27" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
+      <c r="A27" s="36">
+        <v>10</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
     </row>
     <row r="28" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A28" s="36"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="35"/>
+      <c r="A28" s="36">
+        <v>11</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A29" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29" s="38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="13.800000" customHeight="1">
+      <c r="A29" s="36">
+        <v>12</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="36">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>39</v>
@@ -3074,20 +3380,18 @@
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
-      <c r="H30" s="42" t="s">
-        <v>42</v>
-      </c>
+      <c r="H30" s="42"/>
       <c r="I30" s="43"/>
     </row>
-    <row r="31" spans="1:9" ht="13.800000" customHeight="1">
+    <row r="31" spans="1:9" ht="16.500000" customHeight="1">
       <c r="A31" s="36">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>39</v>
@@ -3097,20 +3401,18 @@
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
-      <c r="H31" s="42" t="s">
-        <v>42</v>
-      </c>
+      <c r="H31" s="42"/>
       <c r="I31" s="43"/>
     </row>
-    <row r="32" spans="1:9" ht="13.800000" customHeight="1">
+    <row r="32" spans="1:9">
       <c r="A32" s="36">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D32" s="40" t="s">
         <v>39</v>
@@ -3120,44 +3422,38 @@
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
-      <c r="H32" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" s="43" t="s">
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
+    </row>
+    <row r="33" spans="1:9" ht="17.250000" customHeight="1">
+      <c r="A33" s="36">
+        <v>16</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="52" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13.800000" customHeight="1">
-      <c r="A33" s="36">
-        <v>4</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="17.250000" customHeight="1">
+    <row r="34" spans="1:9" ht="17.250000">
       <c r="A34" s="44" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
@@ -3167,492 +3463,695 @@
       <c r="H34" s="45"/>
       <c r="I34" s="45"/>
     </row>
-    <row r="36" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A36" s="28" t="s">
+    <row r="35" spans="1:9" ht="17.250000">
+      <c r="A35" s="59"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="59"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30" t="s">
+      <c r="B38" s="28"/>
+      <c r="C38" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-    </row>
-    <row r="37" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A37" s="32" t="s">
+      <c r="F38" s="30"/>
+      <c r="G38" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="33" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35" t="s">
+      <c r="F39" s="34"/>
+      <c r="G39" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-    </row>
-    <row r="38" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A38" s="36"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="35"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A39" s="32" t="s">
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="36"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="35"/>
+    </row>
+    <row r="41" spans="1:9" ht="13.800000" customHeight="1">
+      <c r="A41" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B41" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C41" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D41" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E41" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="34" t="s">
+      <c r="F41" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="34" t="s">
+      <c r="G41" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="34" t="s">
+      <c r="H41" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I39" s="38" t="s">
+      <c r="I41" s="38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A40" s="36">
+    <row r="42" spans="1:9" ht="13.800000" customHeight="1">
+      <c r="A42" s="36">
         <v>1</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B42" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C42" s="40" t="s">
         <v>38</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="I40" s="43"/>
-    </row>
-    <row r="41" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A41" s="36">
-        <v>2</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="I41" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A42" s="36">
-        <v>3</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>96</v>
       </c>
       <c r="D42" s="40" t="s">
         <v>39</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
       <c r="H42" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="16.500000" customHeight="1">
+      <c r="I42" s="43"/>
+    </row>
+    <row r="43" spans="1:9" ht="13.800000" customHeight="1">
       <c r="A43" s="36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>39</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
       <c r="H43" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I43" s="43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="16.500000" customHeight="1">
+      <c r="I43" s="43"/>
+    </row>
+    <row r="44" spans="1:9" ht="17.250000" customHeight="1">
       <c r="A44" s="36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D44" s="40" t="s">
         <v>39</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="F44" s="42"/>
       <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
+      <c r="H44" s="42" t="s">
+        <v>42</v>
+      </c>
       <c r="I44" s="43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="16.500000" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="27.000000">
       <c r="A45" s="36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>39</v>
       </c>
       <c r="E45" s="41" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="F45" s="42"/>
       <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
+      <c r="H45" s="42" t="s">
+        <v>42</v>
+      </c>
       <c r="I45" s="43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="16.500000" customHeight="1">
-      <c r="A46" s="36">
-        <v>7</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="17.250000">
+      <c r="A46" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="28"/>
+      <c r="C48" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="30"/>
+      <c r="G48" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="34"/>
+      <c r="G49" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="36"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="35"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="27.000000">
+      <c r="A52" s="36">
+        <v>1</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="54.000000" customHeight="1">
-      <c r="A47" s="47">
-        <v>8</v>
-      </c>
-      <c r="B47" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51" t="s">
+      <c r="E52" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I47" s="52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="17.250000" customHeight="1">
-      <c r="A48" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="30"/>
-      <c r="G51" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="34"/>
-      <c r="G52" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="36"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="35"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H54" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I54" s="38" t="s">
-        <v>36</v>
+      <c r="I52" s="43"/>
+    </row>
+    <row r="53" spans="1:9" ht="27.000000">
+      <c r="A53" s="36">
+        <v>2</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="27.000000">
+      <c r="A54" s="36">
+        <v>3</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" s="43" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="27.000000">
       <c r="A55" s="36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D55" s="40" t="s">
         <v>39</v>
       </c>
       <c r="E55" s="41" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="F55" s="42"/>
       <c r="G55" s="42"/>
       <c r="H55" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I55" s="43"/>
-    </row>
-    <row r="56" spans="1:9" ht="40.500000">
+      <c r="I55" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D56" s="40" t="s">
         <v>39</v>
       </c>
       <c r="E56" s="41" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="F56" s="42"/>
       <c r="G56" s="42"/>
-      <c r="H56" s="42" t="s">
+      <c r="H56" s="42"/>
+      <c r="I56" s="43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="54.000000" customHeight="1">
+      <c r="A57" s="36">
+        <v>6</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="36.450000" customHeight="1">
+      <c r="A58" s="36">
+        <v>7</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="54.000000">
+      <c r="A59" s="47">
+        <v>8</v>
+      </c>
+      <c r="B59" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="I56" s="43" t="s">
+      <c r="I59" s="52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="17.250000">
+      <c r="A60" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="28"/>
+      <c r="C63" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" s="29"/>
+      <c r="E63" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="30"/>
+      <c r="G63" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="32"/>
+      <c r="C64" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" s="33"/>
+      <c r="E64" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="34"/>
+      <c r="G64" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+    </row>
+    <row r="65" spans="1:9" ht="27.000000">
+      <c r="A65" s="36"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="35"/>
+    </row>
+    <row r="66" spans="1:9" ht="40.500000">
+      <c r="A66" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="17.250000">
+      <c r="A67" s="36">
+        <v>1</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I67" s="43"/>
+    </row>
+    <row r="68" spans="1:9" ht="40.500000">
+      <c r="A68" s="36">
+        <v>2</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I68" s="43" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="17.250000">
-      <c r="A57" s="44" t="s">
+    <row r="69" spans="1:9" ht="31.250000" customHeight="1">
+      <c r="A69" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="0"/>
-      <c r="B59" s="0"/>
-      <c r="C59" s="0"/>
-      <c r="D59" s="0"/>
-      <c r="E59" s="0"/>
-      <c r="F59" s="0"/>
-      <c r="G59" s="0"/>
-      <c r="H59" s="0"/>
-      <c r="I59" s="0"/>
+      <c r="B69" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
+  <mergeCells count="48">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="B34:I34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="B69:I69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>
